--- a/data/trans_dic/P25A$voluntad-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P25A$voluntad-Habitat-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5597787803610158</v>
+        <v>0.560981755010322</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6949483234248462</v>
+        <v>0.6927211674477913</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5484454380389761</v>
+        <v>0.550087142656302</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5954554520614794</v>
+        <v>0.5761107785633776</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.805882188627506</v>
+        <v>0.8215393875013032</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5305763832996536</v>
+        <v>0.5206553355454882</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5885887546642325</v>
+        <v>0.5870569614969157</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.743229245818028</v>
+        <v>0.7427343071281935</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5726560608049515</v>
+        <v>0.5700110920157161</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7229529577830293</v>
+        <v>0.7225612942263755</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8233787686971517</v>
+        <v>0.8160729983274446</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7273603749788472</v>
+        <v>0.7300095401029798</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8629382139388269</v>
+        <v>0.8613612359071294</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9576417760477202</v>
+        <v>0.957774717424316</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7788817403318624</v>
+        <v>0.7687795805481286</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7360557045996428</v>
+        <v>0.7315122046415213</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8405835765497705</v>
+        <v>0.8417887369620261</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7225723455555919</v>
+        <v>0.7229312596753387</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4905642048696558</v>
+        <v>0.4924341658729897</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6001398048664374</v>
+        <v>0.6057068285652146</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5269649397675743</v>
+        <v>0.5310239923504078</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5916845551538501</v>
+        <v>0.5723993345761188</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.594588502794584</v>
+        <v>0.5962560073657163</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6015694547123162</v>
+        <v>0.6046974891411784</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5386021765469026</v>
+        <v>0.5391575218560835</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.6235384574007599</v>
+        <v>0.62565528783713</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5778416015406282</v>
+        <v>0.5821667192257979</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6392403002527165</v>
+        <v>0.6404346453158882</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7266414051326576</v>
+        <v>0.7247271001422805</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6765117315911696</v>
+        <v>0.6796391108522382</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7922072671195726</v>
+        <v>0.7957051267842212</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7763408803369084</v>
+        <v>0.7820523765147547</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8009897639608311</v>
+        <v>0.7887112055265787</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6708351113041652</v>
+        <v>0.6672358746056531</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7276157011377408</v>
+        <v>0.7274279015162556</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6985517261226177</v>
+        <v>0.6994796213949895</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4872199705684377</v>
+        <v>0.4809273852404904</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5513329048340714</v>
+        <v>0.5499946721936981</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3991203667114747</v>
+        <v>0.4062773595760141</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5052255589100697</v>
+        <v>0.5143085827540811</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6947565032461613</v>
+        <v>0.6906241906979461</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5598985208420418</v>
+        <v>0.564337984016953</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5171258723516039</v>
+        <v>0.5139505533352807</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.627520675498663</v>
+        <v>0.6267655747442604</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4802065827563171</v>
+        <v>0.4834293785413115</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6638933604560118</v>
+        <v>0.6561651894723396</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7116311176705327</v>
+        <v>0.7074753643898055</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5714861451168884</v>
+        <v>0.5743390438718318</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7876643424936735</v>
+        <v>0.7993466443007611</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8569804419238455</v>
+        <v>0.8612027185568238</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7787775034071364</v>
+        <v>0.777999460685209</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6707071541676708</v>
+        <v>0.6631735806814996</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.745899080997898</v>
+        <v>0.747596600555037</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6235306740985379</v>
+        <v>0.6190152731386218</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4557433190099366</v>
+        <v>0.4599951144610319</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.573841392592181</v>
+        <v>0.5705371367508477</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5803405802881169</v>
+        <v>0.5829197640906488</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4940216053210061</v>
+        <v>0.4950908492971821</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6610946913610872</v>
+        <v>0.6641270445092946</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6324423921695306</v>
+        <v>0.6231627955205261</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4967792920529172</v>
+        <v>0.4921992705642047</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6268263349665449</v>
+        <v>0.6178999518406865</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6230560191357565</v>
+        <v>0.6283294843846533</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6078949598676541</v>
+        <v>0.609182507383435</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7033307025140951</v>
+        <v>0.700711686462625</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7294566956719277</v>
+        <v>0.7237584979704609</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.709423707234815</v>
+        <v>0.6921174311337251</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8295181408725874</v>
+        <v>0.8317911522534007</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7926320032132896</v>
+        <v>0.792564483005169</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6098255297842887</v>
+        <v>0.6133726609800054</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7298883055169191</v>
+        <v>0.7287593097261083</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7319143964875021</v>
+        <v>0.7396341143218231</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5349144469809471</v>
+        <v>0.5357665101311883</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6412244379207042</v>
+        <v>0.6369732152162566</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5613329628371764</v>
+        <v>0.5621053924015181</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5976925364590826</v>
+        <v>0.5994101406951278</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7275233807978522</v>
+        <v>0.7290823096183738</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6508375961831104</v>
+        <v>0.647060162328379</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5676105368318644</v>
+        <v>0.5664853890876614</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6760217306435646</v>
+        <v>0.6778407519312715</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6031639810568723</v>
+        <v>0.6038671097022204</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6123322106212458</v>
+        <v>0.6164507688180445</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7079513288831764</v>
+        <v>0.7085626661974324</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6445516568805778</v>
+        <v>0.6410244520973802</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7186186299118598</v>
+        <v>0.7199217076099812</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8138878409392467</v>
+        <v>0.8212771711365582</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7480666747539766</v>
+        <v>0.7487904730075948</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.632976930546761</v>
+        <v>0.6312384192065079</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7319285241105475</v>
+        <v>0.7303578141698491</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6660709451025458</v>
+        <v>0.6690875889087129</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>72454</v>
+        <v>72610</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>131105</v>
+        <v>130685</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>64830</v>
+        <v>65024</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>24592</v>
+        <v>23793</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>58094</v>
+        <v>59222</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>28548</v>
+        <v>28014</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>100492</v>
+        <v>100230</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>193790</v>
+        <v>193661</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>98504</v>
+        <v>98049</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>93575</v>
+        <v>93524</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>155334</v>
+        <v>153955</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>85978</v>
+        <v>86292</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>35638</v>
+        <v>35573</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>69034</v>
+        <v>69043</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>41909</v>
+        <v>41365</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>125669</v>
+        <v>124893</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>219175</v>
+        <v>219489</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>124292</v>
+        <v>124354</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>91660</v>
+        <v>92010</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>149252</v>
+        <v>150637</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>93410</v>
+        <v>94130</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>45522</v>
+        <v>44039</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>58461</v>
+        <v>58624</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>51935</v>
+        <v>52205</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>142075</v>
+        <v>142221</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>216378</v>
+        <v>217112</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>152315</v>
+        <v>153455</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>119440</v>
+        <v>119663</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>180713</v>
+        <v>180237</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>119919</v>
+        <v>120474</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>60950</v>
+        <v>61219</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>76331</v>
+        <v>76892</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>69151</v>
+        <v>68091</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>176956</v>
+        <v>176006</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>252494</v>
+        <v>252429</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>184133</v>
+        <v>184378</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>65434</v>
+        <v>64589</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>95024</v>
+        <v>94794</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>53299</v>
+        <v>54254</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>20049</v>
+        <v>20409</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>71679</v>
+        <v>71252</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>41747</v>
+        <v>42078</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>89972</v>
+        <v>89419</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>172898</v>
+        <v>172690</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>99932</v>
+        <v>100603</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>89162</v>
+        <v>88124</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>122652</v>
+        <v>121936</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>76316</v>
+        <v>76697</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>31257</v>
+        <v>31720</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>88416</v>
+        <v>88851</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>58067</v>
+        <v>58009</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>116692</v>
+        <v>115382</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>205514</v>
+        <v>205982</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>129758</v>
+        <v>128818</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>79293</v>
+        <v>80033</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>118424</v>
+        <v>117742</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>102423</v>
+        <v>102878</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>45853</v>
+        <v>45952</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>74694</v>
+        <v>75036</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>76594</v>
+        <v>75471</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>132542</v>
+        <v>131320</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>200179</v>
+        <v>197329</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>185420</v>
+        <v>186989</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>105765</v>
+        <v>105989</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>145146</v>
+        <v>144606</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>128740</v>
+        <v>127735</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>65846</v>
+        <v>64240</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>93723</v>
+        <v>93980</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>95995</v>
+        <v>95987</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>162703</v>
+        <v>163649</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>233093</v>
+        <v>232732</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>217816</v>
+        <v>220113</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>334090</v>
+        <v>334623</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>523286</v>
+        <v>519817</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>339884</v>
+        <v>340352</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>149862</v>
+        <v>150293</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>281234</v>
+        <v>281836</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>218557</v>
+        <v>217289</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>496831</v>
+        <v>495846</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>813008</v>
+        <v>815196</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>567761</v>
+        <v>568423</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>382443</v>
+        <v>385015</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>577740</v>
+        <v>578239</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>390273</v>
+        <v>388137</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>180183</v>
+        <v>180510</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>314619</v>
+        <v>317475</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>251208</v>
+        <v>251451</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>554047</v>
+        <v>552525</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>880244</v>
+        <v>878355</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>626975</v>
+        <v>629815</v>
       </c>
     </row>
     <row r="24">
